--- a/WorkingSet.xlsx
+++ b/WorkingSet.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="133" documentId="13_ncr:1_{4240278B-E492-4540-BCB0-CA879E3D4135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D0FB870-BF15-4E58-9B8F-DB98D4E412C2}"/>
   <bookViews>
-    <workbookView xWindow="-3020" yWindow="10690" windowWidth="25180" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -8057,7 +8057,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -8092,10 +8092,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8400,8 +8396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1739"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A379" zoomScale="87" workbookViewId="0">
-      <selection activeCell="I405" sqref="I405"/>
+    <sheetView tabSelected="1" topLeftCell="A437" zoomScale="87" workbookViewId="0">
+      <selection activeCell="S449" sqref="S449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16495,79 +16491,79 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A229" s="16">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A229" s="1">
         <v>1358</v>
       </c>
-      <c r="B229" s="17">
+      <c r="B229">
         <v>21017</v>
       </c>
-      <c r="C229" s="17">
+      <c r="C229">
         <v>211233</v>
       </c>
-      <c r="D229" s="17" t="s">
+      <c r="D229" t="s">
         <v>348</v>
       </c>
-      <c r="E229" s="17" t="s">
+      <c r="E229" t="s">
         <v>296</v>
       </c>
-      <c r="F229" s="17">
-        <v>69</v>
-      </c>
-      <c r="G229" s="17">
+      <c r="F229">
+        <v>69</v>
+      </c>
+      <c r="G229">
         <v>40.569589999999998</v>
       </c>
-      <c r="H229" s="17">
+      <c r="H229">
         <v>-75.603005999999993</v>
       </c>
-      <c r="L229" s="17" t="s">
+      <c r="L229" t="s">
         <v>349</v>
       </c>
-      <c r="M229" s="17">
+      <c r="M229">
         <v>40.565556999999998</v>
       </c>
-      <c r="N229" s="17">
+      <c r="N229">
         <v>-75.591091000000006</v>
       </c>
-      <c r="O229" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A230" s="16">
+      <c r="O229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A230" s="1">
         <v>1359</v>
       </c>
-      <c r="B230" s="17">
+      <c r="B230">
         <v>21018</v>
       </c>
-      <c r="C230" s="17">
+      <c r="C230">
         <v>211234</v>
       </c>
-      <c r="D230" s="17" t="s">
+      <c r="D230" t="s">
         <v>350</v>
       </c>
-      <c r="E230" s="17" t="s">
+      <c r="E230" t="s">
         <v>296</v>
       </c>
-      <c r="F230" s="17">
-        <v>69</v>
-      </c>
-      <c r="G230" s="17">
+      <c r="F230">
+        <v>69</v>
+      </c>
+      <c r="G230">
         <v>40.569589999999998</v>
       </c>
-      <c r="H230" s="17">
+      <c r="H230">
         <v>-75.603005999999993</v>
       </c>
-      <c r="L230" s="17" t="s">
+      <c r="L230" t="s">
         <v>351</v>
       </c>
-      <c r="M230" s="17">
+      <c r="M230">
         <v>40.565550000000002</v>
       </c>
-      <c r="N230" s="17">
+      <c r="N230">
         <v>-75.590875999999994</v>
       </c>
-      <c r="O230" s="17">
+      <c r="O230">
         <v>1</v>
       </c>
     </row>

--- a/WorkingSet.xlsx
+++ b/WorkingSet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sathv\OneDrive - Iowa State University\Sathvik School\Undergrad\Sathvik\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iowastate-my.sharepoint.com/personal/alij_iastate_edu/Documents/Undergrad/Sathvik/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F80B2F7-4698-4A8C-8F23-AA0E885B32E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2726869E-3C34-40EA-AB25-DA3D4E441ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8363,8 +8363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1729"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A355" zoomScale="87" workbookViewId="0">
-      <selection activeCell="L381" sqref="L381"/>
+    <sheetView tabSelected="1" topLeftCell="A352" zoomScale="87" workbookViewId="0">
+      <selection activeCell="K373" sqref="K373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -63005,4 +63005,172 @@
   <autoFilter ref="D1:D1728" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001CAE0CD974CABB45A103725661DA6383" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9a4abd94ff91fdf91d342b7b8bbd3c34">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b764bea3eb9b1a5be8fd57fac5fb459b">
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all/>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6130AB7D-231D-45E8-96B5-553FB00C258F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71746AF1-75A8-40CA-934C-2368A937A6E4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51EB2096-0F9E-4641-A7DF-DEE7F8B42C33}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>